--- a/data/trans_camb/P24_5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P24_5_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>12,54</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,44</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,25</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 1,53</t>
+          <t>-16,2; 8,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 2,64</t>
+          <t>-14,65; 9,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 6,97</t>
+          <t>-15,35; 14,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 4,61</t>
+          <t>-13,87; 14,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 13,05</t>
+          <t>-14,81; 17,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 11,9</t>
+          <t>-4,25; 28,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 2,33</t>
+          <t>-10,47; 21,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 6,42</t>
+          <t>-14,14; 18,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 8,26</t>
+          <t>-9,81; 10,59</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; 17,36</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,51; 14,43</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-9,07; 13,15</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-56,37%</t>
+          <t>-27,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-49,4%</t>
+          <t>-24,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,93%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,12%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>70,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-32,71%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>-0,9%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>39,98%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>23,87%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14,38%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-92,06; 50,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-89,19; 89,41</t>
+          <t>-100,0; 443,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-72,85; 185,18</t>
+          <t>-91,71; 425,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-62,57; 39,88</t>
+          <t>-86,73; 520,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 108,86</t>
+          <t>-63,38; 160,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,68; 99,35</t>
+          <t>-24,01; 246,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,42; 29,57</t>
+          <t>-42,81; 210,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,37; 69,14</t>
+          <t>-60,43; 167,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-34,66; 90,03</t>
+          <t>-53,0; 123,95</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-29,64; 183,6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-39,81; 163,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-46,56; 140,33</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 4,16</t>
+          <t>-17,05; 6,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 6,54</t>
+          <t>-18,18; 6,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 1,82</t>
+          <t>-20,97; 4,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 6,82</t>
+          <t>-20,83; 3,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 7,78</t>
+          <t>-4,14; 14,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 12,09</t>
+          <t>-3,95; 14,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 4,43</t>
+          <t>-5,93; 12,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 4,57</t>
+          <t>-5,18; 12,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 4,77</t>
+          <t>-5,82; 8,73</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 8,24</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-7,53; 5,72</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-7,7; 5,77</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,1%</t>
+          <t>-16,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>-7,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-36,3%</t>
+          <t>-23,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>-35,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-3,88%</t>
+          <t>13,26%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12,8%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-1,67%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-75,06; 105,35</t>
+          <t>-82,75; 201,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,12; 160,24</t>
+          <t>-84,14; 215,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-82,34; 55,4</t>
+          <t>-87,67; 152,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,8; 37,43</t>
+          <t>-91,42; 102,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,86; 43,28</t>
+          <t>-16,16; 84,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,91; 64,81</t>
+          <t>-14,68; 87,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,52; 36,57</t>
+          <t>-22,47; 71,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,87; 35,84</t>
+          <t>-19,9; 75,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,76; 41,14</t>
+          <t>-29,28; 70,54</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-29,87; 66,2</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-38,66; 49,85</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-38,07; 47,02</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,54</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-6,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-3,65</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-4,5</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-3,8</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-3,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 2,08</t>
+          <t>-9,44; 4,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 4,75</t>
+          <t>-5,71; 10,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 3,89</t>
+          <t>-9,71; 4,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 0,0</t>
+          <t>-10,25; 3,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 7,18</t>
+          <t>-15,1; 2,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 2,55</t>
+          <t>-7,16; 11,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,03; -0,99</t>
+          <t>-12,95; 4,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 5,04</t>
+          <t>-12,84; 5,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 1,84</t>
+          <t>-10,16; 1,53</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 8,1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-9,59; 1,98</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-10,16; 1,68</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-31,0%</t>
+          <t>-24,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,26%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,51%</t>
+          <t>-27,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-31,55%</t>
+          <t>-35,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,14%</t>
+          <t>-28,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-18,46%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-31,37%</t>
+          <t>-20,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,06%</t>
+          <t>-16,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-17,64%</t>
+          <t>-27,29%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-23,05%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-23,87%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-67,86; 36,21</t>
+          <t>-69,78; 70,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,01; 75,1</t>
+          <t>-43,97; 168,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,89; 59,3</t>
+          <t>-69,38; 77,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-53,28; 0,92</t>
+          <t>-75,2; 64,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,13; 35,76</t>
+          <t>-55,77; 12,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,75; 13,33</t>
+          <t>-28,66; 66,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,49; -6,56</t>
+          <t>-48,7; 28,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,24; 33,56</t>
+          <t>-48,73; 36,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-39,67; 13,36</t>
+          <t>-51,85; 13,21</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-22,85; 62,09</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-47,84; 14,96</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-50,73; 12,99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 1,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 3,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 0,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 1,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 5,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 5,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 0,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 2,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-24,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-24,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-14,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-17,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-7,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,96; 18,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,73; 48,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-59,91; 15,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 8,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 28,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 29,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,08; 1,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 20,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 15,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,99</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-2,79</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4,99</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-9,94; 2,76</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-9,19; 4,69</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-9,89; 2,71</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-10,86; 1,68</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-6,19; 5,53</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 10,67</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,77; 5,61</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 6,91</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 3,0</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 6,84</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 2,93</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-5,25; 3,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-21,3%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-1,26%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-21,74%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-29,76%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>23,56%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4,64%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-5,41%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>15,45%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-7,08%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-6,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-64,79; 45,25</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-60,15; 71,36</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-67,33; 44,81</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-68,6; 27,47</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-25,92; 29,8</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 57,9</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-23,77; 30,97</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-21,4; 37,28</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-30,69; 23,9</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 54,01</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-31,59; 21,4</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-29,22; 26,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
